--- a/Code/Results/Cases/Case_1_193/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_193/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.398020414985215</v>
+        <v>6.414658091557881</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.121077752431875</v>
+        <v>3.710838819035526</v>
       </c>
       <c r="E2">
-        <v>29.9711721428894</v>
+        <v>16.58781092826514</v>
       </c>
       <c r="F2">
-        <v>16.12049193814264</v>
+        <v>19.07606382731735</v>
       </c>
       <c r="G2">
-        <v>19.95329603380828</v>
+        <v>20.08707642018283</v>
       </c>
       <c r="H2">
-        <v>7.326389306463284</v>
+        <v>11.87795694170807</v>
       </c>
       <c r="I2">
-        <v>11.1245032123392</v>
+        <v>17.79008391292007</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.75385575907611</v>
+        <v>11.30786179471816</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.41325942155295</v>
+        <v>16.75202072264581</v>
       </c>
       <c r="O2">
-        <v>12.04542807807779</v>
+        <v>16.93833874414826</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.953797349487028</v>
+        <v>6.289114304817435</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.93449552951187</v>
+        <v>3.636313135138622</v>
       </c>
       <c r="E3">
-        <v>27.8103697866524</v>
+        <v>15.64205953995149</v>
       </c>
       <c r="F3">
-        <v>15.48896732574485</v>
+        <v>19.02453921908501</v>
       </c>
       <c r="G3">
-        <v>18.97498789240023</v>
+        <v>19.95151561870688</v>
       </c>
       <c r="H3">
-        <v>7.298548260827645</v>
+        <v>11.91086151460003</v>
       </c>
       <c r="I3">
-        <v>11.39877449077798</v>
+        <v>17.88501248978983</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.82811519089663</v>
+        <v>10.86349663151118</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.52804557308419</v>
+        <v>16.79372421800811</v>
       </c>
       <c r="O3">
-        <v>11.79306080288636</v>
+        <v>16.96298881989019</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.665352395416821</v>
+        <v>6.211643869133904</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.814647693729274</v>
+        <v>3.589159604468868</v>
       </c>
       <c r="E4">
-        <v>26.41867023309497</v>
+        <v>15.03586575318281</v>
       </c>
       <c r="F4">
-        <v>15.1051978114135</v>
+        <v>18.99906936892011</v>
       </c>
       <c r="G4">
-        <v>18.37541604634831</v>
+        <v>19.87665079716189</v>
       </c>
       <c r="H4">
-        <v>7.287453085063597</v>
+        <v>11.93331607525453</v>
       </c>
       <c r="I4">
-        <v>11.57183557065486</v>
+        <v>17.94624457796846</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.23130744229753</v>
+        <v>10.57913418901649</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.60155769934083</v>
+        <v>16.82092484775676</v>
       </c>
       <c r="O4">
-        <v>11.6488340537383</v>
+        <v>16.98276762681802</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.543881908620024</v>
+        <v>6.180019745406446</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.764515740467623</v>
+        <v>3.569607704589137</v>
       </c>
       <c r="E5">
-        <v>25.83492061813144</v>
+        <v>14.78269186838543</v>
       </c>
       <c r="F5">
-        <v>14.95003198184403</v>
+        <v>18.99024794642647</v>
       </c>
       <c r="G5">
-        <v>18.13172143889194</v>
+        <v>19.84827741308929</v>
       </c>
       <c r="H5">
-        <v>7.284385212625732</v>
+        <v>11.94303160463669</v>
       </c>
       <c r="I5">
-        <v>11.64355680639934</v>
+        <v>17.97193996822383</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.98105734111954</v>
+        <v>10.4604627238403</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.63227337611386</v>
+        <v>16.83241111102415</v>
       </c>
       <c r="O5">
-        <v>11.59274426464308</v>
+        <v>16.99199181626541</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.523475350026066</v>
+        <v>6.174766576110041</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.756114449218792</v>
+        <v>3.566341235394161</v>
       </c>
       <c r="E6">
-        <v>25.73697750130172</v>
+        <v>14.74029024106473</v>
       </c>
       <c r="F6">
-        <v>14.92434743176403</v>
+        <v>18.98887740894875</v>
       </c>
       <c r="G6">
-        <v>18.09130581002259</v>
+        <v>19.84369574051361</v>
       </c>
       <c r="H6">
-        <v>7.283961955588188</v>
+        <v>11.9446789645601</v>
       </c>
       <c r="I6">
-        <v>11.65553912945298</v>
+        <v>17.97625159527397</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.93908127859983</v>
+        <v>10.44059217650949</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.6374194269671</v>
+        <v>16.8343426878227</v>
       </c>
       <c r="O6">
-        <v>11.58359209731237</v>
+        <v>16.99359368659634</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.663730071512912</v>
+        <v>6.211217537633909</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.813976779803241</v>
+        <v>3.588897263694295</v>
       </c>
       <c r="E7">
-        <v>26.41086524655828</v>
+        <v>15.03247585096039</v>
       </c>
       <c r="F7">
-        <v>15.10309993505255</v>
+        <v>18.99894408498324</v>
       </c>
       <c r="G7">
-        <v>18.37212641783387</v>
+        <v>19.87625946483428</v>
       </c>
       <c r="H7">
-        <v>7.287405898886686</v>
+        <v>11.93344481543011</v>
       </c>
       <c r="I7">
-        <v>11.57279794606981</v>
+        <v>17.9465881045154</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.22796086487193</v>
+        <v>10.57754489708062</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.60196887350986</v>
+        <v>16.82107812759928</v>
       </c>
       <c r="O7">
-        <v>11.64806676599864</v>
+        <v>16.98288731883527</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.248117706133569</v>
+        <v>6.371476025023521</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.0578610831317</v>
+        <v>3.68544005722409</v>
       </c>
       <c r="E8">
-        <v>29.23943195928677</v>
+        <v>16.26715251152642</v>
       </c>
       <c r="F8">
-        <v>15.90204118928752</v>
+        <v>19.05702318687232</v>
       </c>
       <c r="G8">
-        <v>19.61594318334672</v>
+        <v>20.03861727335204</v>
       </c>
       <c r="H8">
-        <v>7.315511695163823</v>
+        <v>11.88883469579005</v>
       </c>
       <c r="I8">
-        <v>11.21812159549788</v>
+        <v>17.82220522384409</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.44060321115269</v>
+        <v>11.15709478124091</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.45220574920251</v>
+        <v>16.76606964508909</v>
       </c>
       <c r="O8">
-        <v>11.95617974818233</v>
+        <v>16.94587236452099</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.269140146362183</v>
+        <v>6.680863565973599</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.492877490010748</v>
+        <v>3.863112945931277</v>
       </c>
       <c r="E9">
-        <v>34.28466467896886</v>
+        <v>18.59153313568305</v>
       </c>
       <c r="F9">
-        <v>17.4917424047718</v>
+        <v>19.21943654535506</v>
       </c>
       <c r="G9">
-        <v>22.05083872869213</v>
+        <v>20.42186547573086</v>
       </c>
       <c r="H9">
-        <v>7.420644446064904</v>
+        <v>11.81925534656191</v>
       </c>
       <c r="I9">
-        <v>10.55828374078856</v>
+        <v>17.60156418249743</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.59043192672555</v>
+        <v>12.19822312220338</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.18278265293434</v>
+        <v>16.67081261334683</v>
       </c>
       <c r="O9">
-        <v>12.64574195749003</v>
+        <v>16.91026571754812</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.942880069184248</v>
+        <v>6.902873369139136</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.784725166892115</v>
+        <v>3.985826382126144</v>
       </c>
       <c r="E10">
-        <v>37.70644904653214</v>
+        <v>20.24154372726754</v>
       </c>
       <c r="F10">
-        <v>18.66385416470952</v>
+        <v>19.36766088339306</v>
       </c>
       <c r="G10">
-        <v>23.82359390418803</v>
+        <v>20.74059917984116</v>
       </c>
       <c r="H10">
-        <v>7.531613946166156</v>
+        <v>11.77910138542011</v>
       </c>
       <c r="I10">
-        <v>10.09334355057162</v>
+        <v>17.45350837743253</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.02867128796219</v>
+        <v>12.90054876357363</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.99994418973753</v>
+        <v>16.60846603872546</v>
       </c>
       <c r="O10">
-        <v>13.20440172964581</v>
+        <v>16.90680186006746</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.232828596971258</v>
+        <v>7.002265595834681</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.91125291280015</v>
+        <v>4.039816626884207</v>
       </c>
       <c r="E11">
-        <v>39.20634595209951</v>
+        <v>20.94960852399132</v>
       </c>
       <c r="F11">
-        <v>19.19645395700657</v>
+        <v>19.44118153165799</v>
       </c>
       <c r="G11">
-        <v>24.62479990458477</v>
+        <v>20.89308083470382</v>
       </c>
       <c r="H11">
-        <v>7.590095204840362</v>
+        <v>11.76322593876571</v>
       </c>
       <c r="I11">
-        <v>9.885679691970379</v>
+        <v>17.38917498322668</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.6522303384127</v>
+        <v>13.20573430007414</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.92013180949862</v>
+        <v>16.58175097815433</v>
       </c>
       <c r="O11">
-        <v>13.46981373526489</v>
+        <v>16.91017529654811</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.340252603584045</v>
+        <v>7.03963738568948</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.958255370602027</v>
+        <v>4.059987404185198</v>
       </c>
       <c r="E12">
-        <v>39.76663772405821</v>
+        <v>21.2116541206746</v>
       </c>
       <c r="F12">
-        <v>19.39796105655446</v>
+        <v>19.4698795146334</v>
       </c>
       <c r="G12">
-        <v>24.92736823720671</v>
+        <v>20.95184453378687</v>
       </c>
       <c r="H12">
-        <v>7.613445268228311</v>
+        <v>11.75755889035392</v>
       </c>
       <c r="I12">
-        <v>9.807553980391798</v>
+        <v>17.36524536581601</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.88395495493445</v>
+        <v>13.31919376195343</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.8904010020961</v>
+        <v>16.5718706882139</v>
       </c>
       <c r="O12">
-        <v>13.57193799959298</v>
+        <v>16.91216509008344</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.317222363676542</v>
+        <v>7.031601071864578</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.948173259102954</v>
+        <v>4.055655620137943</v>
       </c>
       <c r="E13">
-        <v>39.64630279665813</v>
+        <v>21.15548793967854</v>
       </c>
       <c r="F13">
-        <v>19.35457187715303</v>
+        <v>19.46366107922644</v>
       </c>
       <c r="G13">
-        <v>24.86224238247719</v>
+        <v>20.93914415267689</v>
       </c>
       <c r="H13">
-        <v>7.608361987352547</v>
+        <v>11.7587640498833</v>
       </c>
       <c r="I13">
-        <v>9.824357649684089</v>
+        <v>17.37037985246755</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.83424443294138</v>
+        <v>13.29485269825108</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.89678200909743</v>
+        <v>16.57398809428469</v>
       </c>
       <c r="O13">
-        <v>13.54987171172874</v>
+        <v>16.91170486675687</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.241713959381965</v>
+        <v>7.005345720694035</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.91513816016589</v>
+        <v>4.041481641352869</v>
       </c>
       <c r="E14">
-        <v>39.25259270579428</v>
+        <v>20.9712889002919</v>
       </c>
       <c r="F14">
-        <v>19.21303602135795</v>
+        <v>19.44352546409418</v>
       </c>
       <c r="G14">
-        <v>24.64970930076424</v>
+        <v>20.89789519469653</v>
       </c>
       <c r="H14">
-        <v>7.591991780629635</v>
+        <v>11.76275279557561</v>
       </c>
       <c r="I14">
-        <v>9.879242221341347</v>
+        <v>17.38719763143257</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.67138260178652</v>
+        <v>13.21511118097338</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.91767591425377</v>
+        <v>16.58093339227181</v>
       </c>
       <c r="O14">
-        <v>13.47818311871</v>
+        <v>16.91032472001121</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.195154013066075</v>
+        <v>6.989227912740653</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.89478421175276</v>
+        <v>4.032763665354953</v>
       </c>
       <c r="E15">
-        <v>39.01044751683254</v>
+        <v>20.85767043828776</v>
       </c>
       <c r="F15">
-        <v>19.12631602565755</v>
+        <v>19.43130287767688</v>
       </c>
       <c r="G15">
-        <v>24.51941699669243</v>
+        <v>20.87276047481897</v>
       </c>
       <c r="H15">
-        <v>7.582123013202663</v>
+        <v>11.7652409237108</v>
       </c>
       <c r="I15">
-        <v>9.912926047952631</v>
+        <v>17.39755521429124</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.57105212423872</v>
+        <v>13.1659913515565</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.93053844536342</v>
+        <v>16.58521831845988</v>
       </c>
       <c r="O15">
-        <v>13.43448257322599</v>
+        <v>16.90957211777748</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.923598819762397</v>
+        <v>6.896342537340258</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.776329532661269</v>
+        <v>3.982260188174246</v>
       </c>
       <c r="E16">
-        <v>37.60732520534035</v>
+        <v>20.19441698050034</v>
       </c>
       <c r="F16">
-        <v>18.62902699614906</v>
+        <v>19.36297716807615</v>
       </c>
       <c r="G16">
-        <v>23.77112000812589</v>
+        <v>20.73078021978504</v>
       </c>
       <c r="H16">
-        <v>7.527957675273981</v>
+        <v>11.78018706566592</v>
       </c>
       <c r="I16">
-        <v>10.10698878847352</v>
+        <v>17.45777327903167</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.98730305683975</v>
+        <v>12.88031180148098</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.0052285087508</v>
+        <v>16.61024500903232</v>
       </c>
       <c r="O16">
-        <v>13.18728295202865</v>
+        <v>16.906681058792</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.752775249302475</v>
+        <v>6.838924224696311</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.702053414727438</v>
+        <v>3.950800732499625</v>
       </c>
       <c r="E17">
-        <v>36.73235183173753</v>
+        <v>19.77666226829241</v>
       </c>
       <c r="F17">
-        <v>18.32372845393306</v>
+        <v>19.3226092103401</v>
       </c>
       <c r="G17">
-        <v>23.31065154142959</v>
+        <v>20.64555983894022</v>
       </c>
       <c r="H17">
-        <v>7.496816694869519</v>
+        <v>11.78996899899501</v>
       </c>
       <c r="I17">
-        <v>10.22699597376159</v>
+        <v>17.49548669652997</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.62133158843812</v>
+        <v>12.70135408399864</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.05191554292056</v>
+        <v>16.62601935228722</v>
       </c>
       <c r="O17">
-        <v>13.03851823315159</v>
+        <v>16.90617575672003</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.652964825041925</v>
+        <v>6.805750018292735</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.658745526270205</v>
+        <v>3.932534165331248</v>
       </c>
       <c r="E18">
-        <v>36.22372387049321</v>
+        <v>19.53237541026964</v>
       </c>
       <c r="F18">
-        <v>18.14807586720066</v>
+        <v>19.29996533824849</v>
       </c>
       <c r="G18">
-        <v>23.04531138826249</v>
+        <v>20.59725159592846</v>
       </c>
       <c r="H18">
-        <v>7.479655096987728</v>
+        <v>11.79582029391329</v>
       </c>
       <c r="I18">
-        <v>10.29638493608922</v>
+        <v>17.51746263353587</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.40794290445663</v>
+        <v>12.59707827840132</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.07908451398903</v>
+        <v>16.63524737243347</v>
       </c>
       <c r="O18">
-        <v>12.95401390981581</v>
+        <v>16.90635095853337</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.618903161725221</v>
+        <v>6.794493382413645</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.643982013092194</v>
+        <v>3.926320228610632</v>
       </c>
       <c r="E19">
-        <v>36.0505760806911</v>
+        <v>19.44897513550695</v>
       </c>
       <c r="F19">
-        <v>18.08859709198986</v>
+        <v>19.29239776351043</v>
       </c>
       <c r="G19">
-        <v>22.95539074584078</v>
+        <v>20.58101851947519</v>
       </c>
       <c r="H19">
-        <v>7.473971614728709</v>
+        <v>11.79784005662809</v>
       </c>
       <c r="I19">
-        <v>10.31994253165254</v>
+        <v>17.52495217499132</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.33519642068763</v>
+        <v>12.56154310804398</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.08833744661673</v>
+        <v>16.6383984696442</v>
       </c>
       <c r="O19">
-        <v>12.92558462815578</v>
+        <v>16.90649025664158</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.771120847746133</v>
+        <v>6.845052158330052</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.710021018632021</v>
+        <v>3.95416751777897</v>
       </c>
       <c r="E20">
-        <v>36.8260464254512</v>
+        <v>19.82154727386308</v>
       </c>
       <c r="F20">
-        <v>18.35623423863337</v>
+        <v>19.32684709874372</v>
       </c>
       <c r="G20">
-        <v>23.35972074085632</v>
+        <v>20.6545587780471</v>
       </c>
       <c r="H20">
-        <v>7.500053704564907</v>
+        <v>11.78890440399507</v>
       </c>
       <c r="I20">
-        <v>10.2141836107272</v>
+        <v>17.49144264167289</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.66058910580507</v>
+        <v>12.72054393443358</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.04691288001869</v>
+        <v>16.6243241058676</v>
       </c>
       <c r="O20">
-        <v>13.0542446975913</v>
+        <v>16.90618132765846</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.263956963491202</v>
+        <v>7.013065043163806</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.9248661899657</v>
+        <v>4.045652403684496</v>
       </c>
       <c r="E21">
-        <v>39.36843956525868</v>
+        <v>21.02555745650276</v>
       </c>
       <c r="F21">
-        <v>19.25461390233617</v>
+        <v>19.44941667366128</v>
       </c>
       <c r="G21">
-        <v>24.71215833697983</v>
+        <v>20.90998371869649</v>
       </c>
       <c r="H21">
-        <v>7.596766988830875</v>
+        <v>11.76157184443266</v>
       </c>
       <c r="I21">
-        <v>9.863107730618498</v>
+        <v>17.38224613188737</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.71933842162096</v>
+        <v>13.23859076332386</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.91152542715956</v>
+        <v>16.57888698683625</v>
       </c>
       <c r="O21">
-        <v>13.49919586485915</v>
+        <v>16.910710767513</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.572224990955714</v>
+        <v>7.121306387951414</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.059965977964235</v>
+        <v>4.103840703654718</v>
       </c>
       <c r="E22">
-        <v>40.9854894285793</v>
+        <v>21.77700548955529</v>
       </c>
       <c r="F22">
-        <v>19.84070602216219</v>
+        <v>19.5345101134963</v>
       </c>
       <c r="G22">
-        <v>25.62384506245199</v>
+        <v>21.08284987932056</v>
       </c>
       <c r="H22">
-        <v>7.667020334131627</v>
+        <v>11.74571760503114</v>
       </c>
       <c r="I22">
-        <v>9.636623049023342</v>
+        <v>17.31339729067499</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.38563962864667</v>
+        <v>13.56486102099482</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.82591696002642</v>
+        <v>16.55056721235279</v>
       </c>
       <c r="O22">
-        <v>13.7994344245671</v>
+        <v>16.91782298121953</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.408959586126405</v>
+        <v>7.063690332311076</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.988350934752711</v>
+        <v>4.072934431200975</v>
       </c>
       <c r="E23">
-        <v>40.12634904525038</v>
+        <v>21.37917563520094</v>
       </c>
       <c r="F23">
-        <v>19.52801566667812</v>
+        <v>19.48864447309172</v>
       </c>
       <c r="G23">
-        <v>25.12362011345781</v>
+        <v>20.9900639132541</v>
       </c>
       <c r="H23">
-        <v>7.628862324732729</v>
+        <v>11.75399520789627</v>
       </c>
       <c r="I23">
-        <v>9.75724515414932</v>
+        <v>17.34991350595194</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.03236191685401</v>
+        <v>13.39186491544245</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.87134149783489</v>
+        <v>16.56555632165725</v>
       </c>
       <c r="O23">
-        <v>13.63832725094241</v>
+        <v>16.91364709745826</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.762831791919574</v>
+        <v>6.842282226553675</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.706420749980587</v>
+        <v>3.952645954323473</v>
       </c>
       <c r="E24">
-        <v>36.78370455857994</v>
+        <v>19.80126758043312</v>
       </c>
       <c r="F24">
-        <v>18.34153877846961</v>
+        <v>19.3249293904803</v>
       </c>
       <c r="G24">
-        <v>23.33753845133778</v>
+        <v>20.65048821636332</v>
       </c>
       <c r="H24">
-        <v>7.498587946133838</v>
+        <v>11.78938499867853</v>
       </c>
       <c r="I24">
-        <v>10.21997484600665</v>
+        <v>17.49327004296049</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.64285008615092</v>
+        <v>12.71187253072132</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.04917356302235</v>
+        <v>16.62509003099816</v>
       </c>
       <c r="O24">
-        <v>13.04713157786195</v>
+        <v>16.90617735839093</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.006345017817978</v>
+        <v>6.597935019771597</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.379984314014891</v>
+        <v>3.816372377128654</v>
       </c>
       <c r="E25">
-        <v>32.97144509657146</v>
+        <v>17.9459643714065</v>
       </c>
       <c r="F25">
-        <v>17.06034091053181</v>
+        <v>19.17036736871204</v>
       </c>
       <c r="G25">
-        <v>21.39419484298771</v>
+        <v>20.31147246279901</v>
       </c>
       <c r="H25">
-        <v>7.386510499705847</v>
+        <v>11.83615631062949</v>
       </c>
       <c r="I25">
-        <v>10.73315670989498</v>
+        <v>17.65877627181464</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.03357047322484</v>
+        <v>11.92728254203659</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.25304180602995</v>
+        <v>16.69523706845784</v>
       </c>
       <c r="O25">
-        <v>12.45004405029749</v>
+        <v>16.91592134514634</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_193/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_193/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.414658091557881</v>
+        <v>7.398020414985229</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.710838819035526</v>
+        <v>4.121077752431797</v>
       </c>
       <c r="E2">
-        <v>16.58781092826514</v>
+        <v>29.97117214288936</v>
       </c>
       <c r="F2">
-        <v>19.07606382731735</v>
+        <v>16.12049193814269</v>
       </c>
       <c r="G2">
-        <v>20.08707642018283</v>
+        <v>19.95329603380831</v>
       </c>
       <c r="H2">
-        <v>11.87795694170807</v>
+        <v>7.326389306463287</v>
       </c>
       <c r="I2">
-        <v>17.79008391292007</v>
+        <v>11.1245032123392</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.30786179471816</v>
+        <v>16.75385575907611</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.75202072264581</v>
+        <v>11.41325942155295</v>
       </c>
       <c r="O2">
-        <v>16.93833874414826</v>
+        <v>12.0454280780778</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.289114304817435</v>
+        <v>6.953797349487044</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.636313135138622</v>
+        <v>3.934495529511876</v>
       </c>
       <c r="E3">
-        <v>15.64205953995149</v>
+        <v>27.81036978665244</v>
       </c>
       <c r="F3">
-        <v>19.02453921908501</v>
+        <v>15.48896732574479</v>
       </c>
       <c r="G3">
-        <v>19.95151561870688</v>
+        <v>18.97498789240016</v>
       </c>
       <c r="H3">
-        <v>11.91086151460003</v>
+        <v>7.298548260827594</v>
       </c>
       <c r="I3">
-        <v>17.88501248978983</v>
+        <v>11.39877449077798</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.86349663151118</v>
+        <v>15.82811519089669</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.79372421800811</v>
+        <v>11.52804557308419</v>
       </c>
       <c r="O3">
-        <v>16.96298881989019</v>
+        <v>11.7930608028863</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.211643869133904</v>
+        <v>6.665352395416821</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.589159604468868</v>
+        <v>3.814647693729276</v>
       </c>
       <c r="E4">
-        <v>15.03586575318281</v>
+        <v>26.41867023309497</v>
       </c>
       <c r="F4">
-        <v>18.99906936892011</v>
+        <v>15.10519781141351</v>
       </c>
       <c r="G4">
-        <v>19.87665079716189</v>
+        <v>18.37541604634838</v>
       </c>
       <c r="H4">
-        <v>11.93331607525453</v>
+        <v>7.287453085063597</v>
       </c>
       <c r="I4">
-        <v>17.94624457796846</v>
+        <v>11.57183557065486</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.57913418901649</v>
+        <v>15.2313074422975</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.82092484775676</v>
+        <v>11.60155769934083</v>
       </c>
       <c r="O4">
-        <v>16.98276762681802</v>
+        <v>11.64883405373831</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.180019745406446</v>
+        <v>6.543881908619952</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.569607704589137</v>
+        <v>3.764515740467622</v>
       </c>
       <c r="E5">
-        <v>14.78269186838543</v>
+        <v>25.83492061813142</v>
       </c>
       <c r="F5">
-        <v>18.99024794642647</v>
+        <v>14.95003198184395</v>
       </c>
       <c r="G5">
-        <v>19.84827741308929</v>
+        <v>18.13172143889179</v>
       </c>
       <c r="H5">
-        <v>11.94303160463669</v>
+        <v>7.284385212625732</v>
       </c>
       <c r="I5">
-        <v>17.97193996822383</v>
+        <v>11.64355680639944</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.4604627238403</v>
+        <v>14.9810573411196</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.83241111102415</v>
+        <v>11.63227337611386</v>
       </c>
       <c r="O5">
-        <v>16.99199181626541</v>
+        <v>11.59274426464302</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.174766576110041</v>
+        <v>6.523475350026042</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.566341235394161</v>
+        <v>3.756114449218754</v>
       </c>
       <c r="E6">
-        <v>14.74029024106473</v>
+        <v>25.73697750130171</v>
       </c>
       <c r="F6">
-        <v>18.98887740894875</v>
+        <v>14.92434743176391</v>
       </c>
       <c r="G6">
-        <v>19.84369574051361</v>
+        <v>18.0913058100225</v>
       </c>
       <c r="H6">
-        <v>11.9446789645601</v>
+        <v>7.283961955588173</v>
       </c>
       <c r="I6">
-        <v>17.97625159527397</v>
+        <v>11.65553912945291</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.44059217650949</v>
+        <v>14.93908127859983</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.8343426878227</v>
+        <v>11.63741942696706</v>
       </c>
       <c r="O6">
-        <v>16.99359368659634</v>
+        <v>11.5835920973123</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.211217537633909</v>
+        <v>6.663730071512862</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.588897263694295</v>
+        <v>3.813976779803316</v>
       </c>
       <c r="E7">
-        <v>15.03247585096039</v>
+        <v>26.41086524655836</v>
       </c>
       <c r="F7">
-        <v>18.99894408498324</v>
+        <v>15.10309993505248</v>
       </c>
       <c r="G7">
-        <v>19.87625946483428</v>
+        <v>18.37212641783378</v>
       </c>
       <c r="H7">
-        <v>11.93344481543011</v>
+        <v>7.287405898886701</v>
       </c>
       <c r="I7">
-        <v>17.9465881045154</v>
+        <v>11.57279794606984</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.57754489708062</v>
+        <v>15.22796086487198</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.82107812759928</v>
+        <v>11.60196887350986</v>
       </c>
       <c r="O7">
-        <v>16.98288731883527</v>
+        <v>11.64806676599857</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.371476025023521</v>
+        <v>7.248117706133595</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.68544005722409</v>
+        <v>4.057861083131741</v>
       </c>
       <c r="E8">
-        <v>16.26715251152642</v>
+        <v>29.23943195928675</v>
       </c>
       <c r="F8">
-        <v>19.05702318687232</v>
+        <v>15.90204118928748</v>
       </c>
       <c r="G8">
-        <v>20.03861727335204</v>
+        <v>19.61594318334665</v>
       </c>
       <c r="H8">
-        <v>11.88883469579005</v>
+        <v>7.315511695163812</v>
       </c>
       <c r="I8">
-        <v>17.82220522384409</v>
+        <v>11.21812159549784</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.15709478124091</v>
+        <v>16.44060321115273</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.76606964508909</v>
+        <v>11.45220574920251</v>
       </c>
       <c r="O8">
-        <v>16.94587236452099</v>
+        <v>11.95617974818229</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.680863565973599</v>
+        <v>8.269140146362149</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.863112945931277</v>
+        <v>4.492877490010776</v>
       </c>
       <c r="E9">
-        <v>18.59153313568305</v>
+        <v>34.28466467896887</v>
       </c>
       <c r="F9">
-        <v>19.21943654535506</v>
+        <v>17.49174240477183</v>
       </c>
       <c r="G9">
-        <v>20.42186547573086</v>
+        <v>22.05083872869215</v>
       </c>
       <c r="H9">
-        <v>11.81925534656191</v>
+        <v>7.420644446064919</v>
       </c>
       <c r="I9">
-        <v>17.60156418249743</v>
+        <v>10.55828374078856</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.19822312220338</v>
+        <v>18.59043192672551</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.67081261334683</v>
+        <v>11.1827826529343</v>
       </c>
       <c r="O9">
-        <v>16.91026571754812</v>
+        <v>12.64574195749005</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.902873369139136</v>
+        <v>8.942880069184248</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.985826382126144</v>
+        <v>4.784725166892071</v>
       </c>
       <c r="E10">
-        <v>20.24154372726754</v>
+        <v>37.7064490465321</v>
       </c>
       <c r="F10">
-        <v>19.36766088339306</v>
+        <v>18.66385416470945</v>
       </c>
       <c r="G10">
-        <v>20.74059917984116</v>
+        <v>23.82359390418797</v>
       </c>
       <c r="H10">
-        <v>11.77910138542011</v>
+        <v>7.531613946166116</v>
       </c>
       <c r="I10">
-        <v>17.45350837743253</v>
+        <v>10.09334355057162</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.90054876357363</v>
+        <v>20.02867128796226</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.60846603872546</v>
+        <v>10.99994418973754</v>
       </c>
       <c r="O10">
-        <v>16.90680186006746</v>
+        <v>13.20440172964574</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.002265595834681</v>
+        <v>9.232828596971203</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.039816626884207</v>
+        <v>4.911252912800115</v>
       </c>
       <c r="E11">
-        <v>20.94960852399132</v>
+        <v>39.20634595209953</v>
       </c>
       <c r="F11">
-        <v>19.44118153165799</v>
+        <v>19.19645395700656</v>
       </c>
       <c r="G11">
-        <v>20.89308083470382</v>
+        <v>24.62479990458476</v>
       </c>
       <c r="H11">
-        <v>11.76322593876571</v>
+        <v>7.590095204840357</v>
       </c>
       <c r="I11">
-        <v>17.38917498322668</v>
+        <v>9.885679691970447</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.20573430007414</v>
+        <v>20.65223033841266</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.58175097815433</v>
+        <v>10.92013180949861</v>
       </c>
       <c r="O11">
-        <v>16.91017529654811</v>
+        <v>13.4698137352649</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.03963738568948</v>
+        <v>9.340252603584045</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.059987404185198</v>
+        <v>4.958255370601961</v>
       </c>
       <c r="E12">
-        <v>21.2116541206746</v>
+        <v>39.76663772405825</v>
       </c>
       <c r="F12">
-        <v>19.4698795146334</v>
+        <v>19.39796105655447</v>
       </c>
       <c r="G12">
-        <v>20.95184453378687</v>
+        <v>24.92736823720669</v>
       </c>
       <c r="H12">
-        <v>11.75755889035392</v>
+        <v>7.613445268228311</v>
       </c>
       <c r="I12">
-        <v>17.36524536581601</v>
+        <v>9.807553980391798</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.31919376195343</v>
+        <v>20.88395495493448</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.5718706882139</v>
+        <v>10.8904010020961</v>
       </c>
       <c r="O12">
-        <v>16.91216509008344</v>
+        <v>13.57193799959296</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.031601071864578</v>
+        <v>9.317222363676494</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.055655620137943</v>
+        <v>4.948173259102902</v>
       </c>
       <c r="E13">
-        <v>21.15548793967854</v>
+        <v>39.64630279665812</v>
       </c>
       <c r="F13">
-        <v>19.46366107922644</v>
+        <v>19.35457187715302</v>
       </c>
       <c r="G13">
-        <v>20.93914415267689</v>
+        <v>24.86224238247714</v>
       </c>
       <c r="H13">
-        <v>11.7587640498833</v>
+        <v>7.608361987352586</v>
       </c>
       <c r="I13">
-        <v>17.37037985246755</v>
+        <v>9.824357649684158</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.29485269825108</v>
+        <v>20.83424443294132</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.57398809428469</v>
+        <v>10.89678200909744</v>
       </c>
       <c r="O13">
-        <v>16.91170486675687</v>
+        <v>13.54987171172874</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.005345720694035</v>
+        <v>9.24171395938197</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.041481641352869</v>
+        <v>4.915138160165889</v>
       </c>
       <c r="E14">
-        <v>20.9712889002919</v>
+        <v>39.25259270579431</v>
       </c>
       <c r="F14">
-        <v>19.44352546409418</v>
+        <v>19.2130360213579</v>
       </c>
       <c r="G14">
-        <v>20.89789519469653</v>
+        <v>24.6497093007642</v>
       </c>
       <c r="H14">
-        <v>11.76275279557561</v>
+        <v>7.591991780629635</v>
       </c>
       <c r="I14">
-        <v>17.38719763143257</v>
+        <v>9.879242221341347</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.21511118097338</v>
+        <v>20.67138260178657</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.58093339227181</v>
+        <v>10.91767591425378</v>
       </c>
       <c r="O14">
-        <v>16.91032472001121</v>
+        <v>13.47818311870995</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.989227912740653</v>
+        <v>9.195154013066023</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.032763665354953</v>
+        <v>4.894784211752759</v>
       </c>
       <c r="E15">
-        <v>20.85767043828776</v>
+        <v>39.0104475168326</v>
       </c>
       <c r="F15">
-        <v>19.43130287767688</v>
+        <v>19.12631602565751</v>
       </c>
       <c r="G15">
-        <v>20.87276047481897</v>
+        <v>24.5194169966924</v>
       </c>
       <c r="H15">
-        <v>11.7652409237108</v>
+        <v>7.582123013202624</v>
       </c>
       <c r="I15">
-        <v>17.39755521429124</v>
+        <v>9.912926047952565</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.1659913515565</v>
+        <v>20.57105212423876</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.58521831845988</v>
+        <v>10.93053844536336</v>
       </c>
       <c r="O15">
-        <v>16.90957211777748</v>
+        <v>13.43448257322595</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.896342537340258</v>
+        <v>8.92359881976239</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.982260188174246</v>
+        <v>4.776329532661276</v>
       </c>
       <c r="E16">
-        <v>20.19441698050034</v>
+        <v>37.60732520534032</v>
       </c>
       <c r="F16">
-        <v>19.36297716807615</v>
+        <v>18.62902699614906</v>
       </c>
       <c r="G16">
-        <v>20.73078021978504</v>
+        <v>23.77112000812592</v>
       </c>
       <c r="H16">
-        <v>11.78018706566592</v>
+        <v>7.527957675273947</v>
       </c>
       <c r="I16">
-        <v>17.45777327903167</v>
+        <v>10.10698878847352</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.88031180148098</v>
+        <v>19.98730305683982</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.61024500903232</v>
+        <v>11.00522850875082</v>
       </c>
       <c r="O16">
-        <v>16.906681058792</v>
+        <v>13.18728295202861</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.838924224696311</v>
+        <v>8.752775249302475</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.950800732499625</v>
+        <v>4.702053414727459</v>
       </c>
       <c r="E17">
-        <v>19.77666226829241</v>
+        <v>36.73235183173752</v>
       </c>
       <c r="F17">
-        <v>19.3226092103401</v>
+        <v>18.32372845393304</v>
       </c>
       <c r="G17">
-        <v>20.64555983894022</v>
+        <v>23.31065154142954</v>
       </c>
       <c r="H17">
-        <v>11.78996899899501</v>
+        <v>7.496816694869507</v>
       </c>
       <c r="I17">
-        <v>17.49548669652997</v>
+        <v>10.22699597376166</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.70135408399864</v>
+        <v>19.62133158843813</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.62601935228722</v>
+        <v>11.05191554292059</v>
       </c>
       <c r="O17">
-        <v>16.90617575672003</v>
+        <v>13.03851823315157</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.805750018292735</v>
+        <v>8.652964825041941</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.932534165331248</v>
+        <v>4.658745526270236</v>
       </c>
       <c r="E18">
-        <v>19.53237541026964</v>
+        <v>36.22372387049321</v>
       </c>
       <c r="F18">
-        <v>19.29996533824849</v>
+        <v>18.14807586720063</v>
       </c>
       <c r="G18">
-        <v>20.59725159592846</v>
+        <v>23.04531138826247</v>
       </c>
       <c r="H18">
-        <v>11.79582029391329</v>
+        <v>7.479655096987706</v>
       </c>
       <c r="I18">
-        <v>17.51746263353587</v>
+        <v>10.29638493608915</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.59707827840132</v>
+        <v>19.40794290445665</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.63524737243347</v>
+        <v>11.079084513989</v>
       </c>
       <c r="O18">
-        <v>16.90635095853337</v>
+        <v>12.95401390981579</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.794493382413645</v>
+        <v>8.618903161725248</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.926320228610632</v>
+        <v>4.643982013092271</v>
       </c>
       <c r="E19">
-        <v>19.44897513550695</v>
+        <v>36.05057608069107</v>
       </c>
       <c r="F19">
-        <v>19.29239776351043</v>
+        <v>18.08859709198985</v>
       </c>
       <c r="G19">
-        <v>20.58101851947519</v>
+        <v>22.95539074584079</v>
       </c>
       <c r="H19">
-        <v>11.79784005662809</v>
+        <v>7.473971614728692</v>
       </c>
       <c r="I19">
-        <v>17.52495217499132</v>
+        <v>10.31994253165251</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.56154310804398</v>
+        <v>19.33519642068767</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.6383984696442</v>
+        <v>11.08833744661673</v>
       </c>
       <c r="O19">
-        <v>16.90649025664158</v>
+        <v>12.92558462815577</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.845052158330052</v>
+        <v>8.771120847746099</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.95416751777897</v>
+        <v>4.710021018631976</v>
       </c>
       <c r="E20">
-        <v>19.82154727386308</v>
+        <v>36.82604642545117</v>
       </c>
       <c r="F20">
-        <v>19.32684709874372</v>
+        <v>18.35623423863342</v>
       </c>
       <c r="G20">
-        <v>20.6545587780471</v>
+        <v>23.35972074085631</v>
       </c>
       <c r="H20">
-        <v>11.78890440399507</v>
+        <v>7.500053704564914</v>
       </c>
       <c r="I20">
-        <v>17.49144264167289</v>
+        <v>10.21418361072727</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.72054393443358</v>
+        <v>19.66058910580495</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.6243241058676</v>
+        <v>11.04691288001869</v>
       </c>
       <c r="O20">
-        <v>16.90618132765846</v>
+        <v>13.05424469759135</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.013065043163806</v>
+        <v>9.263956963491202</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.045652403684496</v>
+        <v>4.924866189965719</v>
       </c>
       <c r="E21">
-        <v>21.02555745650276</v>
+        <v>39.3684395652588</v>
       </c>
       <c r="F21">
-        <v>19.44941667366128</v>
+        <v>19.25461390233613</v>
       </c>
       <c r="G21">
-        <v>20.90998371869649</v>
+        <v>24.71215833697985</v>
       </c>
       <c r="H21">
-        <v>11.76157184443266</v>
+        <v>7.59676698883082</v>
       </c>
       <c r="I21">
-        <v>17.38224613188737</v>
+        <v>9.863107730618466</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.23859076332386</v>
+        <v>20.71933842162103</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.57888698683625</v>
+        <v>10.91152542715952</v>
       </c>
       <c r="O21">
-        <v>16.910710767513</v>
+        <v>13.49919586485908</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.121306387951414</v>
+        <v>9.572224990955714</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.103840703654718</v>
+        <v>5.059965977964157</v>
       </c>
       <c r="E22">
-        <v>21.77700548955529</v>
+        <v>40.98548942857933</v>
       </c>
       <c r="F22">
-        <v>19.5345101134963</v>
+        <v>19.84070602216217</v>
       </c>
       <c r="G22">
-        <v>21.08284987932056</v>
+        <v>25.62384506245201</v>
       </c>
       <c r="H22">
-        <v>11.74571760503114</v>
+        <v>7.667020334131627</v>
       </c>
       <c r="I22">
-        <v>17.31339729067499</v>
+        <v>9.636623049023269</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.56486102099482</v>
+        <v>21.38563962864671</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.55056721235279</v>
+        <v>10.82591696002639</v>
       </c>
       <c r="O22">
-        <v>16.91782298121953</v>
+        <v>13.79943442456706</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.063690332311076</v>
+        <v>9.408959586126461</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.072934431200975</v>
+        <v>4.988350934752753</v>
       </c>
       <c r="E23">
-        <v>21.37917563520094</v>
+        <v>40.12634904525036</v>
       </c>
       <c r="F23">
-        <v>19.48864447309172</v>
+        <v>19.52801566667809</v>
       </c>
       <c r="G23">
-        <v>20.9900639132541</v>
+        <v>25.12362011345789</v>
       </c>
       <c r="H23">
-        <v>11.75399520789627</v>
+        <v>7.628862324732716</v>
       </c>
       <c r="I23">
-        <v>17.34991350595194</v>
+        <v>9.757245154149185</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.39186491544245</v>
+        <v>21.03236191685404</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.56555632165725</v>
+        <v>10.87134149783483</v>
       </c>
       <c r="O23">
-        <v>16.91364709745826</v>
+        <v>13.63832725094237</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.842282226553675</v>
+        <v>8.76283179191951</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.952645954323473</v>
+        <v>4.706420749980529</v>
       </c>
       <c r="E24">
-        <v>19.80126758043312</v>
+        <v>36.78370455857995</v>
       </c>
       <c r="F24">
-        <v>19.3249293904803</v>
+        <v>18.34153877846957</v>
       </c>
       <c r="G24">
-        <v>20.65048821636332</v>
+        <v>23.33753845133772</v>
       </c>
       <c r="H24">
-        <v>11.78938499867853</v>
+        <v>7.49858794613381</v>
       </c>
       <c r="I24">
-        <v>17.49327004296049</v>
+        <v>10.21997484600662</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.71187253072132</v>
+        <v>19.64285008615097</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.62509003099816</v>
+        <v>11.04917356302228</v>
       </c>
       <c r="O24">
-        <v>16.90617735839093</v>
+        <v>13.04713157786185</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.597935019771597</v>
+        <v>8.006345017818017</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.816372377128654</v>
+        <v>4.379984314015024</v>
       </c>
       <c r="E25">
-        <v>17.9459643714065</v>
+        <v>32.97144509657149</v>
       </c>
       <c r="F25">
-        <v>19.17036736871204</v>
+        <v>17.06034091053179</v>
       </c>
       <c r="G25">
-        <v>20.31147246279901</v>
+        <v>21.3941948429877</v>
       </c>
       <c r="H25">
-        <v>11.83615631062949</v>
+        <v>7.386510499705847</v>
       </c>
       <c r="I25">
-        <v>17.65877627181464</v>
+        <v>10.73315670989494</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.92728254203659</v>
+        <v>18.03357047322488</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.69523706845784</v>
+        <v>11.25304180602995</v>
       </c>
       <c r="O25">
-        <v>16.91592134514634</v>
+        <v>12.45004405029748</v>
       </c>
     </row>
   </sheetData>
